--- a/Optimisation4.xlsx
+++ b/Optimisation4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://leeds365-my.sharepoint.com/personal/cmtmd_leeds_ac_uk/Documents/Research PhD project infomation/Written documents/Papers/Autonomous HPLC method development using optimisation algorithms/paper code/Python code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{13F12149-8833-4347-938B-B7E0370CD990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE23645B-0E88-4B05-9381-4CF8F6A9B247}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{13F12149-8833-4347-938B-B7E0370CD990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C5A36DA-3D63-4210-99C2-EB5D079B47F5}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{BD664935-E066-43F8-A12F-C2FC597EFC43}"/>
+    <workbookView xWindow="1332" yWindow="1128" windowWidth="17280" windowHeight="8904" xr2:uid="{BD664935-E066-43F8-A12F-C2FC597EFC43}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>GradTime</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>WeightRespcmtmdHPLC018</t>
-  </si>
-  <si>
-    <t>Dist</t>
   </si>
   <si>
     <t>Dist2</t>
@@ -437,15 +434,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE8828E3-2CC5-4ED5-B33A-5674B3893062}">
-  <dimension ref="A1:Q93"/>
+  <dimension ref="A1:P93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A94" sqref="A52:XFD94"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="14" max="14" width="8.578125" customWidth="1"/>
+    <col min="15" max="15" width="10.578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -494,11 +495,8 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>4.4400000000000004</v>
       </c>
@@ -545,13 +543,10 @@
         <v>0.121018798002425</v>
       </c>
       <c r="P2">
-        <v>1.3732837822944</v>
-      </c>
-      <c r="Q2">
-        <v>1.4082057613327399</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>7.85</v>
       </c>
@@ -598,13 +593,10 @@
         <v>0.149725679806442</v>
       </c>
       <c r="P3">
-        <v>2.1800095218905402</v>
-      </c>
-      <c r="Q3">
-        <v>2.21495706001993</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>9.44</v>
       </c>
@@ -651,13 +643,10 @@
         <v>0.239040072646619</v>
       </c>
       <c r="P4">
-        <v>0.53870978685482995</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>6.36</v>
       </c>
@@ -704,13 +693,10 @@
         <v>3.2581068220845402E-2</v>
       </c>
       <c r="P5">
-        <v>0.33798545774321198</v>
-      </c>
-      <c r="Q5">
-        <v>0.351093521407841</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>0.375123625569592</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>1.3</v>
       </c>
@@ -757,13 +743,10 @@
         <v>0.206823917000173</v>
       </c>
       <c r="P6">
-        <v>8.9235990175296598E-2</v>
-      </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>3.36</v>
       </c>
@@ -810,13 +793,10 @@
         <v>6.0325655503167902E-2</v>
       </c>
       <c r="P7">
-        <v>0.60591371117510995</v>
-      </c>
-      <c r="Q7">
-        <v>0.61341977093086797</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>0.66920080619827804</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>5.03</v>
       </c>
@@ -863,13 +843,10 @@
         <v>0.20701174180471599</v>
       </c>
       <c r="P8">
-        <v>0.81039935850467903</v>
-      </c>
-      <c r="Q8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>9.5576552908407901</v>
       </c>
@@ -916,13 +893,10 @@
         <v>0.107000377366292</v>
       </c>
       <c r="P9">
-        <v>0.741150003006393</v>
-      </c>
-      <c r="Q9">
-        <v>0.74493760823892996</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>0.81663704206205401</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>1.4658101560035699</v>
       </c>
@@ -969,13 +943,10 @@
         <v>0.189173378949992</v>
       </c>
       <c r="P10">
-        <v>0.11603384158539901</v>
-      </c>
-      <c r="Q10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>1.69651574907421</v>
       </c>
@@ -1022,13 +993,10 @@
         <v>0.19222697517326001</v>
       </c>
       <c r="P11">
-        <v>0.29599119322489897</v>
-      </c>
-      <c r="Q11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>2.1778753937366302</v>
       </c>
@@ -1075,13 +1043,10 @@
         <v>5.4982225468924999E-2</v>
       </c>
       <c r="P12">
-        <v>7.2690410464144498E-2</v>
-      </c>
-      <c r="Q12">
-        <v>7.3794715909674805E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>6.4261670043313596E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>2.5879585562641498</v>
       </c>
@@ -1128,13 +1093,10 @@
         <v>9.6969059081486494E-2</v>
       </c>
       <c r="P13">
-        <v>0.18700240235707799</v>
-      </c>
-      <c r="Q13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>9.9852498620893009</v>
       </c>
@@ -1181,13 +1143,10 @@
         <v>3.3673112230295302E-2</v>
       </c>
       <c r="P14">
-        <v>0.35939785036861199</v>
-      </c>
-      <c r="Q14">
-        <v>0.36875984646294702</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>0.39492821269620199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>1.82400421331431</v>
       </c>
@@ -1234,13 +1193,10 @@
         <v>0.204742035742351</v>
       </c>
       <c r="P15">
-        <v>0.30051599283137198</v>
-      </c>
-      <c r="Q15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>3.8399498629708599</v>
       </c>
@@ -1287,13 +1243,10 @@
         <v>0.16028789491318901</v>
       </c>
       <c r="P16">
-        <v>0.23504347666897499</v>
-      </c>
-      <c r="Q16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>1.7104726979395499</v>
       </c>
@@ -1340,13 +1293,10 @@
         <v>0.27214955256613299</v>
       </c>
       <c r="P17">
-        <v>0.45322695252997303</v>
-      </c>
-      <c r="Q17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>1.00023756745268</v>
       </c>
@@ -1393,13 +1343,10 @@
         <v>1.27241450236221E-2</v>
       </c>
       <c r="P18">
-        <v>2.5070407213910102E-3</v>
-      </c>
-      <c r="Q18">
-        <v>3.72172620569928E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>2.32570259288544E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1446,13 +1393,10 @@
         <v>5.6935077326848701E-2</v>
       </c>
       <c r="P19">
-        <v>0.24049884936315399</v>
-      </c>
-      <c r="Q19">
-        <v>0.24080958470727401</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>0.25149135761126001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>1.32143292950446</v>
       </c>
@@ -1499,13 +1443,10 @@
         <v>0.20759851452137301</v>
       </c>
       <c r="P20">
-        <v>0.29870199389242402</v>
-      </c>
-      <c r="Q20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>1.1641034532968</v>
       </c>
@@ -1552,13 +1493,10 @@
         <v>0.12857974001146999</v>
       </c>
       <c r="P21">
-        <v>0.106742404672622</v>
-      </c>
-      <c r="Q21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>1.3411880773837099</v>
       </c>
@@ -1605,13 +1543,10 @@
         <v>0.19072065297093899</v>
       </c>
       <c r="P22">
-        <v>0.261779308641509</v>
-      </c>
-      <c r="Q22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>1.52112466741034</v>
       </c>
@@ -1658,13 +1593,10 @@
         <v>4.7030909486770002E-2</v>
       </c>
       <c r="P23">
-        <v>0.25834946461969499</v>
-      </c>
-      <c r="Q23">
-        <v>0.25836762278280101</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>0.27117455113082101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1711,13 +1643,10 @@
         <v>3.6109246112604299E-2</v>
       </c>
       <c r="P24">
-        <v>7.0271510131705503E-2</v>
-      </c>
-      <c r="Q24">
-        <v>7.0271510131705503E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>6.0312029380803503E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>2.02901945094548</v>
       </c>
@@ -1764,13 +1693,10 @@
         <v>9.4993677050223504E-2</v>
       </c>
       <c r="P25">
-        <v>8.1830776754415205E-2</v>
-      </c>
-      <c r="Q25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>5.0003812281800801</v>
       </c>
@@ -1817,13 +1743,10 @@
         <v>8.4451728209196095E-2</v>
       </c>
       <c r="P26">
-        <v>0.186795539107624</v>
-      </c>
-      <c r="Q26">
-        <v>0.187110106874532</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>0.19129230749333001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>1.9849670989806201</v>
       </c>
@@ -1870,13 +1793,10 @@
         <v>0.152933658668441</v>
       </c>
       <c r="P27">
-        <v>0.17314948477998901</v>
-      </c>
-      <c r="Q27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>1.1854627779609801</v>
       </c>
@@ -1923,13 +1843,10 @@
         <v>1.6142379358238399E-2</v>
       </c>
       <c r="P28">
-        <v>6.0846758649011803E-2</v>
-      </c>
-      <c r="Q28">
-        <v>7.4941757288315106E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>6.5547544771093702E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>1</v>
       </c>
@@ -1976,13 +1893,10 @@
         <v>9.3665561619420898E-2</v>
       </c>
       <c r="P29">
-        <v>0.48365734040992903</v>
-      </c>
-      <c r="Q29">
-        <v>0.48370100078740003</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>0.52378138946902297</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>1.2451642411217101</v>
       </c>
@@ -2029,13 +1943,10 @@
         <v>0.18389431348222701</v>
       </c>
       <c r="P30">
-        <v>0.33555012835119402</v>
-      </c>
-      <c r="Q30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>2.9268841465437001</v>
       </c>
@@ -2082,13 +1993,10 @@
         <v>2.1275537534705801E-2</v>
       </c>
       <c r="P31">
-        <v>0.154970595426901</v>
-      </c>
-      <c r="Q31">
-        <v>0.159659808237437</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>0.16051953334171501</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>1</v>
       </c>
@@ -2135,13 +2043,10 @@
         <v>8.9610559924139202E-2</v>
       </c>
       <c r="P32">
-        <v>1.3002086431921E-2</v>
-      </c>
-      <c r="Q32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>1.11000141237879</v>
       </c>
@@ -2188,13 +2093,10 @@
         <v>1.3649592008475601E-2</v>
       </c>
       <c r="P33">
-        <v>1.7978868259284402E-2</v>
-      </c>
-      <c r="Q33">
-        <v>4.7192098442912299E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>3.4439177036253002E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>1</v>
       </c>
@@ -2241,13 +2143,10 @@
         <v>0.11130263209222301</v>
       </c>
       <c r="P34">
-        <v>0.22314694009246899</v>
-      </c>
-      <c r="Q34">
-        <v>0.231798965478443</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>1.1746883170968401</v>
       </c>
@@ -2294,13 +2193,10 @@
         <v>1.3090765344104799E-2</v>
       </c>
       <c r="P35">
-        <v>2.6676115183952801E-2</v>
-      </c>
-      <c r="Q35">
-        <v>3.1055210435489901E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1.6349143964945499E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>3.57602655797929</v>
       </c>
@@ -2347,13 +2243,10 @@
         <v>2.5143489116881398E-2</v>
       </c>
       <c r="P36">
-        <v>0.212817858681323</v>
-      </c>
-      <c r="Q36">
-        <v>0.224675353304151</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>0.23340430268912299</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>8.1109056641041004</v>
       </c>
@@ -2400,13 +2293,10 @@
         <v>0.149699462296703</v>
       </c>
       <c r="P37">
-        <v>0.401683944989977</v>
-      </c>
-      <c r="Q37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>1</v>
       </c>
@@ -2453,13 +2343,10 @@
         <v>0.15338302095370801</v>
       </c>
       <c r="P38">
-        <v>0.16871532746050499</v>
-      </c>
-      <c r="Q38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>4.1626692970208703</v>
       </c>
@@ -2506,13 +2393,10 @@
         <v>0.21450556682116201</v>
       </c>
       <c r="P39">
-        <v>0.42458435342874001</v>
-      </c>
-      <c r="Q39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <v>5.8627979320474104</v>
       </c>
@@ -2559,13 +2443,10 @@
         <v>2.46337573091093E-2</v>
       </c>
       <c r="P40">
-        <v>0.20344622438179399</v>
-      </c>
-      <c r="Q40">
-        <v>0.218122862229054</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>0.22605872402529301</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <v>1</v>
       </c>
@@ -2612,13 +2493,10 @@
         <v>6.5438264365733703E-2</v>
       </c>
       <c r="P41">
-        <v>5.5058275535804301E-2</v>
-      </c>
-      <c r="Q41">
-        <v>5.6079161804700399E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>4.4401895377460102E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <v>7.22249135464644</v>
       </c>
@@ -2665,13 +2543,10 @@
         <v>0.12616802538531299</v>
       </c>
       <c r="P42">
-        <v>0.26651633098808802</v>
-      </c>
-      <c r="Q42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <v>1.0484185419165499</v>
       </c>
@@ -2718,13 +2593,10 @@
         <v>0.15836466778778299</v>
       </c>
       <c r="P43">
-        <v>0.35568308079637001</v>
-      </c>
-      <c r="Q43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <v>1</v>
       </c>
@@ -2771,13 +2643,10 @@
         <v>1.39249402787965E-2</v>
       </c>
       <c r="P44">
-        <v>3.7405298480227098E-2</v>
-      </c>
-      <c r="Q44">
-        <v>3.75381670321581E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>2.36167719722561E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <v>1.08789242165095</v>
       </c>
@@ -2824,13 +2693,10 @@
         <v>1.6761773602820901E-2</v>
       </c>
       <c r="P45">
-        <v>7.2674404225538003E-2</v>
-      </c>
-      <c r="Q45">
-        <v>8.3533486133656201E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>7.5179182474747405E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <v>1.40869474427053</v>
       </c>
@@ -2877,13 +2743,10 @@
         <v>4.4826449359738299E-2</v>
       </c>
       <c r="P46">
-        <v>7.6812966947377201E-2</v>
-      </c>
-      <c r="Q46">
-        <v>7.8448353812449606E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>6.9478565861414598E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <v>1.43442306356793</v>
       </c>
@@ -2930,13 +2793,10 @@
         <v>3.5495218708119801E-2</v>
       </c>
       <c r="P47">
-        <v>0.131643143695552</v>
-      </c>
-      <c r="Q47">
-        <v>0.131704291211897</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>0.129180391167282</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <v>1.7204615217306301</v>
       </c>
@@ -2983,13 +2843,10 @@
         <v>0.15318560078613699</v>
       </c>
       <c r="P48">
-        <v>0.166995780654556</v>
-      </c>
-      <c r="Q48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
         <v>1</v>
       </c>
@@ -3036,13 +2893,10 @@
         <v>1.49189878286874E-2</v>
       </c>
       <c r="P49">
-        <v>3.9648915908385998E-2</v>
-      </c>
-      <c r="Q49">
-        <v>5.7340998954544101E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>4.58164603022942E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <v>2.8880705213461701</v>
       </c>
@@ -3089,13 +2943,10 @@
         <v>3.2370858989734297E-2</v>
       </c>
       <c r="P50">
-        <v>0.19219318375238401</v>
-      </c>
-      <c r="Q50">
-        <v>0.19222343922846</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>0.19702453735974601</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
         <v>1</v>
       </c>
@@ -3142,25 +2993,22 @@
         <v>8.8451549888848305E-2</v>
       </c>
       <c r="P51">
-        <v>0.73009237089923396</v>
-      </c>
-      <c r="Q51">
-        <v>0.73594430376141295</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" ht="14.7" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="53" spans="1:17" ht="14.7" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="54" spans="1:17" ht="14.7" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="55" spans="1:17" ht="14.7" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="56" spans="1:17" ht="14.7" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="57" spans="1:17" ht="14.7" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="58" spans="1:17" ht="14.7" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="59" spans="1:17" ht="14.7" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="60" spans="1:17" ht="14.7" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="61" spans="1:17" ht="14.7" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="62" spans="1:17" ht="14.7" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="63" spans="1:17" ht="14.7" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="64" spans="1:17" ht="14.7" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+        <v>0.80655522360091203</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="14.7" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="53" spans="1:16" ht="14.7" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="54" spans="1:16" ht="14.7" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="55" spans="1:16" ht="14.7" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="56" spans="1:16" ht="14.7" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="57" spans="1:16" ht="14.7" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="58" spans="1:16" ht="14.7" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="59" spans="1:16" ht="14.7" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="60" spans="1:16" ht="14.7" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="61" spans="1:16" ht="14.7" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="62" spans="1:16" ht="14.7" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="63" spans="1:16" ht="14.7" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="64" spans="1:16" ht="14.7" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="65" ht="14.7" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="66" ht="14.7" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="67" ht="14.7" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
